--- a/daraz produts tracking/15-Nov-21/tongue scraper.xlsx
+++ b/daraz produts tracking/15-Nov-21/tongue scraper.xlsx
@@ -610,7 +610,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -676,10 +676,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="11" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -875,7 +871,7 @@
   <dimension ref="A1:BE61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1024,7 +1020,9 @@
       <c r="J8" s="10" t="n">
         <v>74</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="10" t="n">
+        <v>74</v>
+      </c>
       <c r="L8" s="11"/>
       <c r="M8" s="5"/>
       <c r="N8" s="12" t="n">
@@ -1041,11 +1039,11 @@
       </c>
       <c r="Q8" s="10" t="n">
         <f aca="false">SUM(J8-K8)</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="R8" s="10" t="n">
         <f aca="false">SUM(K8-L8)</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="S8" s="11" t="n">
         <f aca="false">SUM(L8-M8)</f>
@@ -1121,6 +1119,9 @@
       <c r="J9" s="14" t="n">
         <v>266</v>
       </c>
+      <c r="K9" s="14" t="n">
+        <v>266</v>
+      </c>
       <c r="L9" s="15"/>
       <c r="M9" s="5"/>
       <c r="N9" s="16" t="n">
@@ -1137,11 +1138,11 @@
       </c>
       <c r="Q9" s="10" t="n">
         <f aca="false">SUM(J9-K9)</f>
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="R9" s="10" t="n">
         <f aca="false">SUM(K9-L9)</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="S9" s="11" t="n">
         <f aca="false">SUM(L9-M9)</f>
@@ -1217,6 +1218,9 @@
       <c r="J10" s="14" t="n">
         <v>1050</v>
       </c>
+      <c r="K10" s="14" t="n">
+        <v>1050</v>
+      </c>
       <c r="L10" s="15"/>
       <c r="M10" s="5"/>
       <c r="N10" s="16" t="n">
@@ -1233,11 +1237,11 @@
       </c>
       <c r="Q10" s="10" t="n">
         <f aca="false">SUM(J10-K10)</f>
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="R10" s="10" t="n">
         <f aca="false">SUM(K10-L10)</f>
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="S10" s="11" t="n">
         <f aca="false">SUM(L10-M10)</f>
@@ -1313,6 +1317,9 @@
       <c r="J11" s="14" t="n">
         <v>301</v>
       </c>
+      <c r="K11" s="14" t="n">
+        <v>298</v>
+      </c>
       <c r="L11" s="15"/>
       <c r="M11" s="5"/>
       <c r="N11" s="16" t="n">
@@ -1329,11 +1336,11 @@
       </c>
       <c r="Q11" s="10" t="n">
         <f aca="false">SUM(J11-K11)</f>
-        <v>301</v>
+        <v>3</v>
       </c>
       <c r="R11" s="10" t="n">
         <f aca="false">SUM(K11-L11)</f>
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="S11" s="11" t="n">
         <f aca="false">SUM(L11-M11)</f>
@@ -1409,6 +1416,9 @@
       <c r="J12" s="14" t="n">
         <v>58</v>
       </c>
+      <c r="K12" s="14" t="n">
+        <v>57</v>
+      </c>
       <c r="L12" s="15"/>
       <c r="M12" s="5"/>
       <c r="N12" s="16" t="n">
@@ -1425,11 +1435,11 @@
       </c>
       <c r="Q12" s="10" t="n">
         <f aca="false">SUM(J12-K12)</f>
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="R12" s="10" t="n">
         <f aca="false">SUM(K12-L12)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="S12" s="11" t="n">
         <f aca="false">SUM(L12-M12)</f>
@@ -1505,6 +1515,9 @@
       <c r="J13" s="14" t="n">
         <v>72</v>
       </c>
+      <c r="K13" s="14" t="n">
+        <v>72</v>
+      </c>
       <c r="L13" s="15"/>
       <c r="M13" s="5"/>
       <c r="N13" s="16" t="n">
@@ -1521,17 +1534,17 @@
       </c>
       <c r="Q13" s="10" t="n">
         <f aca="false">SUM(J13-K13)</f>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="R13" s="10" t="n">
         <f aca="false">SUM(K13-L13)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="S13" s="11" t="n">
         <f aca="false">SUM(L13-M13)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="T13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="U13" s="1"/>
@@ -1601,6 +1614,9 @@
       <c r="J14" s="14" t="n">
         <v>61</v>
       </c>
+      <c r="K14" s="14" t="n">
+        <v>61</v>
+      </c>
       <c r="L14" s="15"/>
       <c r="M14" s="5"/>
       <c r="N14" s="16" t="n">
@@ -1617,17 +1633,17 @@
       </c>
       <c r="Q14" s="10" t="n">
         <f aca="false">SUM(J14-K14)</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="R14" s="10" t="n">
         <f aca="false">SUM(K14-L14)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="S14" s="11" t="n">
         <f aca="false">SUM(L14-M14)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="T14" s="13" t="s">
         <v>30</v>
       </c>
       <c r="U14" s="1"/>
@@ -1696,7 +1712,7 @@
         <f aca="false">SUM(L15-M15)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="18"/>
+      <c r="T15" s="17"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1763,7 +1779,7 @@
         <f aca="false">SUM(L16-M16)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="18"/>
+      <c r="T16" s="17"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1805,7 +1821,7 @@
     <row r="17" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="L17" s="15"/>
-      <c r="M17" s="19"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="16" t="n">
         <f aca="false">SUM(G17-H17)</f>
         <v>0</v>
@@ -1830,7 +1846,7 @@
         <f aca="false">SUM(L17-M17)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="18"/>
+      <c r="T17" s="17"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1870,223 +1886,223 @@
       <c r="BE17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="18" t="s">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="21" t="n">
+      <c r="N18" s="20" t="n">
         <f aca="false">AVERAGE(N8:N17)</f>
         <v>0.1</v>
       </c>
-      <c r="O18" s="21" t="n">
+      <c r="O18" s="20" t="n">
         <f aca="false">AVERAGE(O8:O17)</f>
         <v>0.4</v>
       </c>
-      <c r="P18" s="21" t="n">
+      <c r="P18" s="20" t="n">
         <f aca="false">AVERAGE(P8:P17)</f>
         <v>0.2</v>
       </c>
-      <c r="Q18" s="21" t="n">
+      <c r="Q18" s="20" t="n">
         <f aca="false">AVERAGE(Q8:Q17)</f>
-        <v>188.2</v>
-      </c>
-      <c r="R18" s="21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R18" s="20" t="n">
         <f aca="false">AVERAGE(R8:R17)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="22" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="S18" s="21" t="n">
         <f aca="false">AVERAGE(S8:S17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="18" t="s">
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="24" t="n">
+      <c r="N19" s="23" t="n">
         <f aca="false">AVERAGE(N18:S18)</f>
         <v>31.4833333333333</v>
       </c>
-      <c r="O19" s="24"/>
-      <c r="S19" s="25"/>
+      <c r="O19" s="23"/>
+      <c r="S19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="18" t="s">
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="27" t="n">
+      <c r="N20" s="26" t="n">
         <f aca="false">AVERAGE(N8:S8)</f>
         <v>12.3333333333333</v>
       </c>
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="29"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="28"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N24" s="30" t="s">
+      <c r="N24" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="N25" s="32" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="N25" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32" t="s">
+      <c r="O25" s="31"/>
+      <c r="P25" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="33" t="s">
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="N26" s="35" t="s">
+      <c r="I26" s="32"/>
+      <c r="N26" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35" t="s">
+      <c r="O26" s="34"/>
+      <c r="P26" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37" t="n">
+      <c r="E27" s="36"/>
+      <c r="F27" s="36" t="n">
         <v>105</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39" t="s">
+      <c r="G27" s="37"/>
+      <c r="H27" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="39" t="n">
+      <c r="I27" s="38" t="n">
         <v>45</v>
       </c>
-      <c r="N27" s="35" t="s">
+      <c r="N27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35" t="s">
+      <c r="O27" s="34"/>
+      <c r="P27" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41" t="n">
+      <c r="E28" s="39"/>
+      <c r="F28" s="40" t="n">
         <f aca="false">(F27/100)*I29</f>
         <v>3.57</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="N28" s="35" t="s">
+      <c r="G28" s="37"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="N28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35" t="s">
+      <c r="O28" s="34"/>
+      <c r="P28" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41" t="n">
+      <c r="E29" s="39"/>
+      <c r="F29" s="40" t="n">
         <v>49</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="42" t="s">
+      <c r="G29" s="37"/>
+      <c r="H29" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I29" s="42" t="n">
+      <c r="I29" s="41" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="41" t="n">
+      <c r="E30" s="42"/>
+      <c r="F30" s="40" t="n">
         <v>7.5</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41" t="n">
+      <c r="E31" s="40"/>
+      <c r="F31" s="40" t="n">
         <f aca="false">(F27*0.0125)</f>
         <v>1.3125</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41" t="n">
+      <c r="E32" s="40"/>
+      <c r="F32" s="40" t="n">
         <f aca="false">(F28+F29+F31)*16%</f>
         <v>8.6212</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41" t="n">
+      <c r="E33" s="40"/>
+      <c r="F33" s="40" t="n">
         <f aca="false">(I27+F28+F30+F31+F32)</f>
         <v>66.0037</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41" t="n">
+      <c r="E34" s="40"/>
+      <c r="F34" s="40" t="n">
         <f aca="false">F27-F33</f>
         <v>38.9963</v>
       </c>
@@ -2094,7 +2110,7 @@
         <f aca="false">(F34/F27)*100</f>
         <v>37.1393333333333</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H34" s="43" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2142,12 +2158,12 @@
     <mergeCell ref="D29:E29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="T8" r:id="rId1" display="https://www.daraz.pk/products/tongue-scraper-for-oral-health-natural-silver-tongue-cleaner-rustproof-use-after-toothbrush-for-fresh-breath-stainless-steel-i222679939-s1439150101.html?spm=a2a0e.searchlist.list.9.12473556W0w77T&amp;search=1"/>
-    <hyperlink ref="T9" r:id="rId2" display="https://www.daraz.pk/products/tongue-cleaner-scraper-for-oral-health-natural-silver-rustproof-use-after-toothbrush-for-fresh-breath-stainless-steel-i172372638-s1343604284.html?spm=a2a0e.searchlist.list.11.12473556W0w77T&amp;search=1"/>
-    <hyperlink ref="T10" r:id="rId3" display="https://www.daraz.pk/products/best-stainless-steel-tongue-cleaner-scraper-bacteria-inhibiting-non-synthetic-grip-sterilizable-i183778791-s1367042580.html?spm=a2a0e.searchlist.list.13.12473556W0w77T&amp;search=1"/>
-    <hyperlink ref="T11" r:id="rId4" display="https://www.daraz.pk/products/stainless-steel-tongue-cleaner-scraper-bacteria-inhibiting-non-synthetic-grip-sterilizable-i101871331-s1247495366.html?spm=a2a0e.searchlist.list.1.12473556W0w77T&amp;search=1"/>
-    <hyperlink ref="T13" r:id="rId5" display="https://www.daraz.pk/products/tongue-scraper-for-with-oral-health-natural-silver-tongue-cleaner-rustproof-use-after-toothbrush-for-fresh-breath-stainless-steel-i186378656-s1372880361.html?spm=a2a0e.searchlist.list.5.12473556W0w77T&amp;search=1"/>
-    <hyperlink ref="T14" r:id="rId6" display="https://www.daraz.pk/products/tongue-scraper-for-oral-health-natural-silver-tongue-cleaner-rustproof-use-after-toothbrush-for-fresh-breath-stainless-steel-i226571253-s1445980587.html?spm=a2a0e.searchlist.list.7.12473556W0w77T&amp;search=1"/>
+    <hyperlink ref="T8" r:id="rId1" display="View-source:https://www.daraz.pk/products/tongue-scraper-for-oral-health-natural-silver-tongue-cleaner-rustproof-use-after-toothbrush-for-fresh-breath-stainless-steel-i222679939-s1439150101.html?spm=a2a0e.searchlist.list.9.12473556W0w77T&amp;search=1"/>
+    <hyperlink ref="T9" r:id="rId2" display="View-source:https://www.daraz.pk/products/tongue-cleaner-scraper-for-oral-health-natural-silver-rustproof-use-after-toothbrush-for-fresh-breath-stainless-steel-i172372638-s1343604284.html?spm=a2a0e.searchlist.list.11.12473556W0w77T&amp;search=1"/>
+    <hyperlink ref="T10" r:id="rId3" display="View-source:https://www.daraz.pk/products/best-stainless-steel-tongue-cleaner-scraper-bacteria-inhibiting-non-synthetic-grip-sterilizable-i183778791-s1367042580.html?spm=a2a0e.searchlist.list.13.12473556W0w77T&amp;search=1"/>
+    <hyperlink ref="T11" r:id="rId4" display="View-source:https://www.daraz.pk/products/stainless-steel-tongue-cleaner-scraper-bacteria-inhibiting-non-synthetic-grip-sterilizable-i101871331-s1247495366.html?spm=a2a0e.searchlist.list.1.12473556W0w77T&amp;search=1"/>
+    <hyperlink ref="T13" r:id="rId5" display="View-source:https://www.daraz.pk/products/tongue-scraper-for-with-oral-health-natural-silver-tongue-cleaner-rustproof-use-after-toothbrush-for-fresh-breath-stainless-steel-i186378656-s1372880361.html?spm=a2a0e.searchlist.list.5.12473556W0w77T&amp;search=1"/>
+    <hyperlink ref="T14" r:id="rId6" display="View-source:https://www.daraz.pk/products/tongue-scraper-for-oral-health-natural-silver-tongue-cleaner-rustproof-use-after-toothbrush-for-fresh-breath-stainless-steel-i226571253-s1445980587.html?spm=a2a0e.searchlist.list.7.12473556W0w77T&amp;search=1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2170,7 +2186,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2193,7 +2209,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/daraz produts tracking/15-Nov-21/tongue scraper.xlsx
+++ b/daraz produts tracking/15-Nov-21/tongue scraper.xlsx
@@ -870,8 +870,8 @@
   </sheetPr>
   <dimension ref="A1:BE61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I2" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1023,7 +1023,9 @@
       <c r="K8" s="10" t="n">
         <v>74</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="11" t="n">
+        <v>74</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="12" t="n">
         <f aca="false">SUM(G8-H8)</f>
@@ -1043,11 +1045,11 @@
       </c>
       <c r="R8" s="10" t="n">
         <f aca="false">SUM(K8-L8)</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="S8" s="11" t="n">
         <f aca="false">SUM(L8-M8)</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="T8" s="13" t="s">
         <v>17</v>
@@ -1122,7 +1124,9 @@
       <c r="K9" s="14" t="n">
         <v>266</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="15" t="n">
+        <v>266</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="16" t="n">
         <f aca="false">SUM(G9-H9)</f>
@@ -1142,11 +1146,11 @@
       </c>
       <c r="R9" s="10" t="n">
         <f aca="false">SUM(K9-L9)</f>
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="S9" s="11" t="n">
         <f aca="false">SUM(L9-M9)</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="T9" s="13" t="s">
         <v>19</v>
@@ -1221,7 +1225,9 @@
       <c r="K10" s="14" t="n">
         <v>1050</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="15" t="n">
+        <v>1050</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="16" t="n">
         <f aca="false">SUM(G10-H10)</f>
@@ -1241,11 +1247,11 @@
       </c>
       <c r="R10" s="10" t="n">
         <f aca="false">SUM(K10-L10)</f>
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="S10" s="11" t="n">
         <f aca="false">SUM(L10-M10)</f>
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="T10" s="13" t="s">
         <v>21</v>
@@ -1320,7 +1326,9 @@
       <c r="K11" s="14" t="n">
         <v>298</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="15" t="n">
+        <v>294</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="16" t="n">
         <f aca="false">SUM(G11-H11)</f>
@@ -1340,11 +1348,11 @@
       </c>
       <c r="R11" s="10" t="n">
         <f aca="false">SUM(K11-L11)</f>
-        <v>298</v>
+        <v>4</v>
       </c>
       <c r="S11" s="11" t="n">
         <f aca="false">SUM(L11-M11)</f>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="T11" s="13" t="s">
         <v>23</v>
@@ -1419,7 +1427,9 @@
       <c r="K12" s="14" t="n">
         <v>57</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="16" t="n">
         <f aca="false">SUM(G12-H12)</f>
@@ -1518,7 +1528,9 @@
       <c r="K13" s="14" t="n">
         <v>72</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="15" t="n">
+        <v>69</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="16" t="n">
         <f aca="false">SUM(G13-H13)</f>
@@ -1538,11 +1550,11 @@
       </c>
       <c r="R13" s="10" t="n">
         <f aca="false">SUM(K13-L13)</f>
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="S13" s="11" t="n">
         <f aca="false">SUM(L13-M13)</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="T13" s="13" t="s">
         <v>28</v>
@@ -1617,7 +1629,9 @@
       <c r="K14" s="14" t="n">
         <v>61</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="15" t="n">
+        <v>61</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="16" t="n">
         <f aca="false">SUM(G14-H14)</f>
@@ -1637,11 +1651,11 @@
       </c>
       <c r="R14" s="10" t="n">
         <f aca="false">SUM(K14-L14)</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="S14" s="11" t="n">
         <f aca="false">SUM(L14-M14)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="T14" s="13" t="s">
         <v>30</v>
@@ -1912,11 +1926,11 @@
       </c>
       <c r="R18" s="20" t="n">
         <f aca="false">AVERAGE(R8:R17)</f>
-        <v>187.8</v>
+        <v>6.4</v>
       </c>
       <c r="S18" s="21" t="n">
         <f aca="false">AVERAGE(S8:S17)</f>
-        <v>0</v>
+        <v>181.4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
